--- a/Presentations/Contract Turing Tutor.xlsx
+++ b/Presentations/Contract Turing Tutor.xlsx
@@ -1,142 +1,142 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uantwerpen-my.sharepoint.com/personal/s0233480_ad_ua_ac_be/Documents/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{14CCD499-FAA7-2E4B-AF75-97B5F59801DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{36979F43-160F-1C40-B3E8-EBBB4C068B62}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="Calc"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="-9160" yWindow="-26880" windowWidth="61920" windowHeight="25460" xr2:uid="{E83D5656-7D19-3449-97F9-4B82594C66D2}"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
+    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
+      <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="27">
-  <si>
-    <t>Totale workload</t>
-  </si>
-  <si>
-    <t>Dit moet 100% zijn.</t>
-  </si>
-  <si>
-    <t>Dit gaat enkel over features van het groepsgedeelte.</t>
-  </si>
-  <si>
-    <t>Feature</t>
-  </si>
-  <si>
-    <t>Naam</t>
-  </si>
-  <si>
-    <t>Workload</t>
-  </si>
-  <si>
-    <t>Geschatte tijdsbesteding</t>
-  </si>
-  <si>
-    <t>Afgewerkt?</t>
-  </si>
-  <si>
-    <t>Vul hier de namen in van de groepsleden</t>
-  </si>
-  <si>
-    <t>Dit moet tussen de 60 en de 75 liggen</t>
-  </si>
-  <si>
-    <t>GUI in QT</t>
-  </si>
-  <si>
-    <t>Mathis de Herdt</t>
-  </si>
-  <si>
-    <t>Cain Hertoghs</t>
-  </si>
-  <si>
-    <t>CFG, CNF, CYK</t>
-  </si>
-  <si>
-    <t>Emir Murat</t>
-  </si>
-  <si>
-    <t>Expression Validation</t>
-  </si>
-  <si>
-    <t>Addition and substraction with MTM</t>
-  </si>
-  <si>
-    <t>Jonathan van der Sluijs</t>
-  </si>
-  <si>
-    <t>Multiplication with MTM</t>
-  </si>
-  <si>
-    <t>Modulo-Operations with MTM</t>
-  </si>
-  <si>
-    <t>Brackets and precedence of expressions on  MTM</t>
-  </si>
-  <si>
-    <t>Powers with MTM</t>
-  </si>
-  <si>
-    <t>Logs with HTML of calculation steps</t>
-  </si>
-  <si>
-    <t>Logs in  HTML of calculation steps</t>
-  </si>
-  <si>
-    <t>Implementation of the MTM</t>
-  </si>
-  <si>
-    <t>Expression Validation with Earley parser</t>
-  </si>
-  <si>
-    <t>x</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="28">
+  <si>
+    <t xml:space="preserve">Totale workload</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dit moet 100% zijn.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dit gaat enkel over features van het groepsgedeelte.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Feature</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Naam</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Workload</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Geschatte tijdsbesteding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Afgewerkt?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vul hier de namen in van de groepsleden</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dit moet tussen de 60 en de 75 liggen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GUI in QT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mathis de Herdt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cain Hertoghs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CFG, CNF, CYK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Emir Murat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Expression Validation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Addition and substraction with MTM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jonathan van der Sluijs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Multiplication with MTM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Modulo-Operations with MTM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Expression Validation with Earley parser</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brackets and precedence of expressions on  MTM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Powers with MTM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Logs with HTML of calculation steps</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Logs in  HTML of calculation steps</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Implementation of the MTM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Single tape representation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">x</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="3">
+    <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="0%"/>
+    <numFmt numFmtId="166" formatCode="General"/>
+  </numFmts>
+  <fonts count="4">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
+      <charset val="1"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
     </font>
   </fonts>
   <fills count="3">
@@ -148,50 +148,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
-        <bgColor indexed="64"/>
+        <fgColor theme="2" tint="-0.1"/>
+        <bgColor rgb="FFCCCCFF"/>
       </patternFill>
     </fill>
   </fills>
   <borders count="2">
-    <border>
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+  <cellStyleXfs count="20">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+  <cellXfs count="7">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Per cent" xfId="1" builtinId="5"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
   <dxfs count="1">
     <dxf>
@@ -205,208 +246,161 @@
       </fill>
     </dxf>
   </dxfs>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF9C0006"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFD0CECE"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFC7CE"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office 2013 - 2022 Theme">
   <a:themeElements>
     <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:srgbClr val="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:srgbClr val="ffffff"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="44546a"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="e7e6e6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="4472c4"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="ed7d31"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="a5a5a5"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="ffc000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="5b9bd5"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="70ad47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0563c1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="954f72"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204" pitchFamily="0" charset="1"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="0" charset="1"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme>
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
                 <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
                 <a:tint val="67000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="50000">
               <a:schemeClr val="phClr">
                 <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
                 <a:tint val="73000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
                 <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
                 <a:tint val="81000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
+          <a:tileRect l="0" t="0" r="0" b="0"/>
         </a:gradFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
                 <a:lumMod val="102000"/>
                 <a:tint val="94000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
                 <a:lumMod val="100000"/>
                 <a:shade val="100000"/>
               </a:schemeClr>
@@ -414,33 +408,24 @@
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
                 <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
                 <a:shade val="78000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
+          <a:tileRect l="0" t="0" r="0" b="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
         <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
@@ -453,13 +438,7 @@
           <a:effectLst/>
         </a:effectStyle>
         <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
+          <a:effectLst/>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
@@ -469,15 +448,13 @@
         <a:solidFill>
           <a:schemeClr val="phClr">
             <a:tint val="95000"/>
-            <a:satMod val="170000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
                 <a:tint val="93000"/>
-                <a:satMod val="150000"/>
                 <a:shade val="98000"/>
                 <a:lumMod val="102000"/>
               </a:schemeClr>
@@ -485,7 +462,6 @@
             <a:gs pos="50000">
               <a:schemeClr val="phClr">
                 <a:tint val="98000"/>
-                <a:satMod val="130000"/>
                 <a:shade val="90000"/>
                 <a:lumMod val="103000"/>
               </a:schemeClr>
@@ -493,65 +469,57 @@
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
                 <a:shade val="63000"/>
-                <a:satMod val="120000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
+          <a:tileRect l="0" t="0" r="0" b="0"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAE3C64F-1735-EA40-B1EC-038D557541BA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:J106"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J39" sqref="J39"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B20" activeCellId="0" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.1640625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="45.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.6640625" style="1" customWidth="1"/>
-    <col min="4" max="5" width="14.6640625" customWidth="1"/>
-    <col min="8" max="8" width="35.1640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="32.6640625" bestFit="1" customWidth="1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="45.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="19.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="14.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="0" width="14.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="35.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="32.66"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1">
-        <f>SUM(C5:C107)</f>
-        <v>0.99999999999999978</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="B1" s="1" t="n">
+        <f aca="false">SUM(C5:C107)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C2"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="C3"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
@@ -574,883 +542,901 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="4" t="s">
         <v>10</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="5">
-        <f>D5/$D$20</f>
-        <v>5.7692307692307696E-2</v>
-      </c>
-      <c r="D5" s="4">
-        <v>15</v>
+      <c r="C5" s="5" t="n">
+        <f aca="false">D5/$D$22</f>
+        <v>0.037037037037037</v>
+      </c>
+      <c r="D5" s="4" t="n">
+        <v>10</v>
       </c>
       <c r="E5" s="4"/>
       <c r="H5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="I5">
-        <f>SUMIF(B5:B19,H5,D5:D19)</f>
-        <v>65</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I5" s="6" t="n">
+        <f aca="false">SUMIF(B5:B19,H5,D5:D21)</f>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="4" t="s">
         <v>13</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="5">
-        <f t="shared" ref="C6:C19" si="0">D6/$D$20</f>
-        <v>3.8461538461538464E-2</v>
-      </c>
-      <c r="D6" s="4">
+      <c r="C6" s="5" t="n">
+        <f aca="false">D6/$D$22</f>
+        <v>0.037037037037037</v>
+      </c>
+      <c r="D6" s="4" t="n">
         <v>10</v>
       </c>
       <c r="E6" s="4"/>
       <c r="H6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="I6">
-        <f>SUMIF(B5:B19,H6,D5:D19)</f>
-        <v>65</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I6" s="6" t="n">
+        <f aca="false">SUMIF(B5:B19,H6,D5:D21)</f>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="4" t="s">
         <v>15</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="5">
-        <f t="shared" si="0"/>
-        <v>7.6923076923076927E-2</v>
-      </c>
-      <c r="D7" s="4">
-        <v>20</v>
+      <c r="C7" s="5" t="n">
+        <f aca="false">D7/$D$22</f>
+        <v>0.0555555555555556</v>
+      </c>
+      <c r="D7" s="4" t="n">
+        <v>15</v>
       </c>
       <c r="E7" s="4"/>
       <c r="H7" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I7">
-        <f>SUMIF(B5:B19,H7,D5:D19)</f>
-        <v>65</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I7" s="6" t="n">
+        <f aca="false">SUMIF(B5:B21,H7,D5:D21)</f>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="4" t="s">
         <v>16</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="5">
-        <f t="shared" si="0"/>
-        <v>7.6923076923076927E-2</v>
-      </c>
-      <c r="D8" s="4">
+      <c r="C8" s="5" t="n">
+        <f aca="false">D8/$D$22</f>
+        <v>0.0740740740740741</v>
+      </c>
+      <c r="D8" s="4" t="n">
         <v>20</v>
       </c>
       <c r="E8" s="4"/>
       <c r="H8" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="I8">
-        <f>SUMIF(B5:B19,H8,D5:D19)</f>
-        <v>65</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I8" s="6" t="n">
+        <f aca="false">SUMIF(B5:B21,H8,D5:D21)</f>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="4" t="s">
         <v>18</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="5">
-        <f t="shared" si="0"/>
-        <v>7.6923076923076927E-2</v>
-      </c>
-      <c r="D9" s="4">
+      <c r="C9" s="5" t="n">
+        <f aca="false">D9/$D$22</f>
+        <v>0.0740740740740741</v>
+      </c>
+      <c r="D9" s="4" t="n">
         <v>20</v>
       </c>
       <c r="E9" s="4"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="4" t="s">
         <v>19</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="5">
-        <f t="shared" si="0"/>
-        <v>0.11538461538461539</v>
-      </c>
-      <c r="D10" s="4">
+      <c r="C10" s="5" t="n">
+        <f aca="false">D10/$D$22</f>
+        <v>0.111111111111111</v>
+      </c>
+      <c r="D10" s="4" t="n">
         <v>30</v>
       </c>
       <c r="E10" s="4"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="4" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C11" s="5">
-        <f t="shared" si="0"/>
-        <v>9.6153846153846159E-2</v>
-      </c>
-      <c r="D11" s="4">
-        <v>25</v>
+        <v>14</v>
+      </c>
+      <c r="C11" s="5" t="n">
+        <f aca="false">D11/$D$22</f>
+        <v>0.111111111111111</v>
+      </c>
+      <c r="D11" s="4" t="n">
+        <v>30</v>
       </c>
       <c r="E11" s="4"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="5">
-        <f t="shared" si="0"/>
-        <v>9.6153846153846159E-2</v>
-      </c>
-      <c r="D12" s="4">
-        <v>25</v>
+      <c r="C12" s="5" t="n">
+        <f aca="false">D12/$D$22</f>
+        <v>0.0740740740740741</v>
+      </c>
+      <c r="D12" s="4" t="n">
+        <v>20</v>
       </c>
       <c r="E12" s="4"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C13" s="5">
-        <f t="shared" si="0"/>
-        <v>7.6923076923076927E-2</v>
-      </c>
-      <c r="D13" s="4">
-        <v>20</v>
+        <v>12</v>
+      </c>
+      <c r="C13" s="5" t="n">
+        <f aca="false">D13/$D$22</f>
+        <v>0.0555555555555556</v>
+      </c>
+      <c r="D13" s="4" t="n">
+        <v>15</v>
       </c>
       <c r="E13" s="4"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="5">
-        <f t="shared" si="0"/>
-        <v>5.7692307692307696E-2</v>
-      </c>
-      <c r="D14" s="4">
-        <v>15</v>
+      <c r="C14" s="5" t="n">
+        <f aca="false">D14/$D$22</f>
+        <v>0.037037037037037</v>
+      </c>
+      <c r="D14" s="4" t="n">
+        <v>10</v>
       </c>
       <c r="E14" s="4"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="5">
-        <f t="shared" si="0"/>
-        <v>7.6923076923076927E-2</v>
-      </c>
-      <c r="D15" s="4">
+      <c r="C15" s="5" t="n">
+        <f aca="false">D15/$D$22</f>
+        <v>0.0740740740740741</v>
+      </c>
+      <c r="D15" s="4" t="n">
         <v>20</v>
       </c>
       <c r="E15" s="4"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C16" s="5">
-        <f t="shared" si="0"/>
-        <v>3.8461538461538464E-2</v>
-      </c>
-      <c r="D16" s="4">
+      <c r="C16" s="5" t="n">
+        <f aca="false">D16/$D$22</f>
+        <v>0.037037037037037</v>
+      </c>
+      <c r="D16" s="4" t="n">
         <v>10</v>
       </c>
       <c r="E16" s="4"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="5">
-        <f t="shared" si="0"/>
-        <v>3.8461538461538464E-2</v>
-      </c>
-      <c r="D17" s="4">
+      <c r="C17" s="5" t="n">
+        <f aca="false">D17/$D$22</f>
+        <v>0.037037037037037</v>
+      </c>
+      <c r="D17" s="4" t="n">
         <v>10</v>
       </c>
       <c r="E17" s="4"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C18" s="5">
-        <f t="shared" si="0"/>
-        <v>3.8461538461538464E-2</v>
-      </c>
-      <c r="D18" s="4">
+      <c r="C18" s="5" t="n">
+        <f aca="false">D18/$D$22</f>
+        <v>0.037037037037037</v>
+      </c>
+      <c r="D18" s="4" t="n">
         <v>10</v>
       </c>
       <c r="E18" s="4"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C19" s="5">
-        <f t="shared" si="0"/>
-        <v>3.8461538461538464E-2</v>
-      </c>
-      <c r="D19" s="4">
+      <c r="C19" s="5" t="n">
+        <f aca="false">D19/$D$22</f>
+        <v>0.037037037037037</v>
+      </c>
+      <c r="D19" s="4" t="n">
         <v>10</v>
       </c>
       <c r="E19" s="4"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="4"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="4">
-        <f>SUM(D5:D19)</f>
-        <v>260</v>
+    <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C20" s="5" t="n">
+        <f aca="false">D20/$D$22</f>
+        <v>0.0740740740740741</v>
+      </c>
+      <c r="D20" s="4" t="n">
+        <v>20</v>
       </c>
       <c r="E20" s="4"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="4"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="4"/>
+    <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C21" s="5" t="n">
+        <f aca="false">D21/$D$22</f>
+        <v>0.037037037037037</v>
+      </c>
+      <c r="D21" s="4" t="n">
+        <v>10</v>
+      </c>
       <c r="E21" s="4"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="4"/>
       <c r="B22" s="4"/>
       <c r="C22" s="5"/>
-      <c r="D22" s="4"/>
+      <c r="D22" s="4" t="n">
+        <f aca="false">SUM(D5:D21)</f>
+        <v>270</v>
+      </c>
       <c r="E22" s="4"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="4"/>
       <c r="B23" s="4"/>
       <c r="C23" s="5"/>
       <c r="D23" s="4"/>
       <c r="E23" s="4"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="4"/>
       <c r="B24" s="4"/>
       <c r="C24" s="5"/>
       <c r="D24" s="4"/>
       <c r="E24" s="4"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="4"/>
       <c r="B25" s="4"/>
       <c r="C25" s="5"/>
       <c r="D25" s="4"/>
       <c r="E25" s="4"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="4"/>
       <c r="B26" s="4"/>
       <c r="C26" s="5"/>
       <c r="D26" s="4"/>
       <c r="E26" s="4"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="4"/>
       <c r="B27" s="4"/>
       <c r="C27" s="5"/>
       <c r="D27" s="4"/>
       <c r="E27" s="4"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="4"/>
       <c r="B28" s="4"/>
       <c r="C28" s="5"/>
       <c r="D28" s="4"/>
       <c r="E28" s="4"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="4"/>
       <c r="B29" s="4"/>
       <c r="C29" s="5"/>
       <c r="D29" s="4"/>
       <c r="E29" s="4"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="4"/>
       <c r="B30" s="4"/>
       <c r="C30" s="5"/>
       <c r="D30" s="4"/>
       <c r="E30" s="4"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="4"/>
       <c r="B31" s="4"/>
       <c r="C31" s="5"/>
       <c r="D31" s="4"/>
       <c r="E31" s="4"/>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="4"/>
       <c r="B32" s="4"/>
       <c r="C32" s="5"/>
       <c r="D32" s="4"/>
       <c r="E32" s="4"/>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="4"/>
       <c r="B33" s="4"/>
       <c r="C33" s="5"/>
       <c r="D33" s="4"/>
       <c r="E33" s="4"/>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="4"/>
       <c r="B34" s="4"/>
       <c r="C34" s="5"/>
       <c r="D34" s="4"/>
       <c r="E34" s="4"/>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="4"/>
       <c r="B35" s="4"/>
       <c r="C35" s="5"/>
       <c r="D35" s="4"/>
       <c r="E35" s="4"/>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="4"/>
       <c r="B36" s="4"/>
       <c r="C36" s="5"/>
       <c r="D36" s="4"/>
       <c r="E36" s="4"/>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="4"/>
       <c r="B37" s="4"/>
       <c r="C37" s="5"/>
       <c r="D37" s="4"/>
       <c r="E37" s="4"/>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="4"/>
       <c r="B38" s="4"/>
       <c r="C38" s="5"/>
       <c r="D38" s="4"/>
       <c r="E38" s="4"/>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="4"/>
       <c r="B39" s="4"/>
       <c r="C39" s="5"/>
       <c r="D39" s="4"/>
       <c r="E39" s="4"/>
-      <c r="J39" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J39" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="4"/>
       <c r="B40" s="4"/>
       <c r="C40" s="5"/>
       <c r="D40" s="4"/>
       <c r="E40" s="4"/>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="4"/>
       <c r="B41" s="4"/>
       <c r="C41" s="5"/>
       <c r="D41" s="4"/>
       <c r="E41" s="4"/>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="4"/>
       <c r="B42" s="4"/>
       <c r="C42" s="5"/>
       <c r="D42" s="4"/>
       <c r="E42" s="4"/>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="4"/>
       <c r="B43" s="4"/>
       <c r="C43" s="5"/>
       <c r="D43" s="4"/>
       <c r="E43" s="4"/>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="4"/>
       <c r="B44" s="4"/>
       <c r="C44" s="5"/>
       <c r="D44" s="4"/>
       <c r="E44" s="4"/>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="4"/>
       <c r="B45" s="4"/>
       <c r="C45" s="5"/>
       <c r="D45" s="4"/>
       <c r="E45" s="4"/>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="4"/>
       <c r="B46" s="4"/>
       <c r="C46" s="5"/>
       <c r="D46" s="4"/>
       <c r="E46" s="4"/>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="4"/>
       <c r="B47" s="4"/>
       <c r="C47" s="5"/>
       <c r="D47" s="4"/>
       <c r="E47" s="4"/>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="48" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="4"/>
       <c r="B48" s="4"/>
       <c r="C48" s="5"/>
       <c r="D48" s="4"/>
       <c r="E48" s="4"/>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="49" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="4"/>
       <c r="B49" s="4"/>
       <c r="C49" s="5"/>
       <c r="D49" s="4"/>
       <c r="E49" s="4"/>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="50" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="4"/>
       <c r="B50" s="4"/>
       <c r="C50" s="5"/>
       <c r="D50" s="4"/>
       <c r="E50" s="4"/>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="51" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="4"/>
       <c r="B51" s="4"/>
       <c r="C51" s="5"/>
       <c r="D51" s="4"/>
       <c r="E51" s="4"/>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="52" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="4"/>
       <c r="B52" s="4"/>
       <c r="C52" s="5"/>
       <c r="D52" s="4"/>
       <c r="E52" s="4"/>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="53" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="4"/>
       <c r="B53" s="4"/>
       <c r="C53" s="5"/>
       <c r="D53" s="4"/>
       <c r="E53" s="4"/>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="54" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="4"/>
       <c r="B54" s="4"/>
       <c r="C54" s="5"/>
       <c r="D54" s="4"/>
       <c r="E54" s="4"/>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="55" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="4"/>
       <c r="B55" s="4"/>
       <c r="C55" s="5"/>
       <c r="D55" s="4"/>
       <c r="E55" s="4"/>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="56" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="4"/>
       <c r="B56" s="4"/>
       <c r="C56" s="5"/>
       <c r="D56" s="4"/>
       <c r="E56" s="4"/>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="57" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="4"/>
       <c r="B57" s="4"/>
       <c r="C57" s="5"/>
       <c r="D57" s="4"/>
       <c r="E57" s="4"/>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="58" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="4"/>
       <c r="B58" s="4"/>
       <c r="C58" s="5"/>
       <c r="D58" s="4"/>
       <c r="E58" s="4"/>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="59" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="4"/>
       <c r="B59" s="4"/>
       <c r="C59" s="5"/>
       <c r="D59" s="4"/>
       <c r="E59" s="4"/>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="60" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="4"/>
       <c r="B60" s="4"/>
       <c r="C60" s="5"/>
       <c r="D60" s="4"/>
       <c r="E60" s="4"/>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="61" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="4"/>
       <c r="B61" s="4"/>
       <c r="C61" s="5"/>
       <c r="D61" s="4"/>
       <c r="E61" s="4"/>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="62" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="4"/>
       <c r="B62" s="4"/>
       <c r="C62" s="5"/>
       <c r="D62" s="4"/>
       <c r="E62" s="4"/>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="63" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="4"/>
       <c r="B63" s="4"/>
       <c r="C63" s="5"/>
       <c r="D63" s="4"/>
       <c r="E63" s="4"/>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="64" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="4"/>
       <c r="B64" s="4"/>
       <c r="C64" s="5"/>
       <c r="D64" s="4"/>
       <c r="E64" s="4"/>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="65" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="4"/>
       <c r="B65" s="4"/>
       <c r="C65" s="5"/>
       <c r="D65" s="4"/>
       <c r="E65" s="4"/>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="66" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="4"/>
       <c r="B66" s="4"/>
       <c r="C66" s="5"/>
       <c r="D66" s="4"/>
       <c r="E66" s="4"/>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="67" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="4"/>
       <c r="B67" s="4"/>
       <c r="C67" s="5"/>
       <c r="D67" s="4"/>
       <c r="E67" s="4"/>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="68" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="4"/>
       <c r="B68" s="4"/>
       <c r="C68" s="5"/>
       <c r="D68" s="4"/>
       <c r="E68" s="4"/>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="69" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="4"/>
       <c r="B69" s="4"/>
       <c r="C69" s="5"/>
       <c r="D69" s="4"/>
       <c r="E69" s="4"/>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="70" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="4"/>
       <c r="B70" s="4"/>
       <c r="C70" s="5"/>
       <c r="D70" s="4"/>
       <c r="E70" s="4"/>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="71" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="4"/>
       <c r="B71" s="4"/>
       <c r="C71" s="5"/>
       <c r="D71" s="4"/>
       <c r="E71" s="4"/>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="72" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="4"/>
       <c r="B72" s="4"/>
       <c r="C72" s="5"/>
       <c r="D72" s="4"/>
       <c r="E72" s="4"/>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="73" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="4"/>
       <c r="B73" s="4"/>
       <c r="C73" s="5"/>
       <c r="D73" s="4"/>
       <c r="E73" s="4"/>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="74" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="4"/>
       <c r="B74" s="4"/>
       <c r="C74" s="5"/>
       <c r="D74" s="4"/>
       <c r="E74" s="4"/>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="75" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="4"/>
       <c r="B75" s="4"/>
       <c r="C75" s="5"/>
       <c r="D75" s="4"/>
       <c r="E75" s="4"/>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="76" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="4"/>
       <c r="B76" s="4"/>
       <c r="C76" s="5"/>
       <c r="D76" s="4"/>
       <c r="E76" s="4"/>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="77" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="4"/>
       <c r="B77" s="4"/>
       <c r="C77" s="5"/>
       <c r="D77" s="4"/>
       <c r="E77" s="4"/>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="78" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="4"/>
       <c r="B78" s="4"/>
       <c r="C78" s="5"/>
       <c r="D78" s="4"/>
       <c r="E78" s="4"/>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="79" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="4"/>
       <c r="B79" s="4"/>
       <c r="C79" s="5"/>
       <c r="D79" s="4"/>
       <c r="E79" s="4"/>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="80" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="4"/>
       <c r="B80" s="4"/>
       <c r="C80" s="5"/>
       <c r="D80" s="4"/>
       <c r="E80" s="4"/>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="81" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="4"/>
       <c r="B81" s="4"/>
       <c r="C81" s="5"/>
       <c r="D81" s="4"/>
       <c r="E81" s="4"/>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="82" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="4"/>
       <c r="B82" s="4"/>
       <c r="C82" s="5"/>
       <c r="D82" s="4"/>
       <c r="E82" s="4"/>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="83" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="4"/>
       <c r="B83" s="4"/>
       <c r="C83" s="5"/>
       <c r="D83" s="4"/>
       <c r="E83" s="4"/>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="84" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="4"/>
       <c r="B84" s="4"/>
       <c r="C84" s="5"/>
       <c r="D84" s="4"/>
       <c r="E84" s="4"/>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="85" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="4"/>
       <c r="B85" s="4"/>
       <c r="C85" s="5"/>
       <c r="D85" s="4"/>
       <c r="E85" s="4"/>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="86" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="4"/>
       <c r="B86" s="4"/>
       <c r="C86" s="5"/>
       <c r="D86" s="4"/>
       <c r="E86" s="4"/>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="87" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="4"/>
       <c r="B87" s="4"/>
       <c r="C87" s="5"/>
       <c r="D87" s="4"/>
       <c r="E87" s="4"/>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="88" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="4"/>
       <c r="B88" s="4"/>
       <c r="C88" s="5"/>
       <c r="D88" s="4"/>
       <c r="E88" s="4"/>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="89" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="4"/>
       <c r="B89" s="4"/>
       <c r="C89" s="5"/>
       <c r="D89" s="4"/>
       <c r="E89" s="4"/>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="90" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="4"/>
       <c r="B90" s="4"/>
       <c r="C90" s="5"/>
       <c r="D90" s="4"/>
       <c r="E90" s="4"/>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="91" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="4"/>
       <c r="B91" s="4"/>
       <c r="C91" s="5"/>
       <c r="D91" s="4"/>
       <c r="E91" s="4"/>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="92" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="4"/>
       <c r="B92" s="4"/>
       <c r="C92" s="5"/>
       <c r="D92" s="4"/>
       <c r="E92" s="4"/>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="93" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="4"/>
       <c r="B93" s="4"/>
       <c r="C93" s="5"/>
       <c r="D93" s="4"/>
       <c r="E93" s="4"/>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="94" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="4"/>
       <c r="B94" s="4"/>
       <c r="C94" s="5"/>
       <c r="D94" s="4"/>
       <c r="E94" s="4"/>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="95" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="4"/>
       <c r="B95" s="4"/>
       <c r="C95" s="5"/>
       <c r="D95" s="4"/>
       <c r="E95" s="4"/>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="96" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="4"/>
       <c r="B96" s="4"/>
       <c r="C96" s="5"/>
       <c r="D96" s="4"/>
       <c r="E96" s="4"/>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="97" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="4"/>
       <c r="B97" s="4"/>
       <c r="C97" s="5"/>
       <c r="D97" s="4"/>
       <c r="E97" s="4"/>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="98" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="4"/>
       <c r="B98" s="4"/>
       <c r="C98" s="5"/>
       <c r="D98" s="4"/>
       <c r="E98" s="4"/>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="99" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="4"/>
       <c r="B99" s="4"/>
       <c r="C99" s="5"/>
       <c r="D99" s="4"/>
       <c r="E99" s="4"/>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="100" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="4"/>
       <c r="B100" s="4"/>
       <c r="C100" s="5"/>
       <c r="D100" s="4"/>
       <c r="E100" s="4"/>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="101" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="4"/>
       <c r="B101" s="4"/>
       <c r="C101" s="5"/>
       <c r="D101" s="4"/>
       <c r="E101" s="4"/>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="102" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="4"/>
       <c r="B102" s="4"/>
       <c r="C102" s="5"/>
       <c r="D102" s="4"/>
       <c r="E102" s="4"/>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="103" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="4"/>
       <c r="B103" s="4"/>
       <c r="C103" s="5"/>
       <c r="D103" s="4"/>
       <c r="E103" s="4"/>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="104" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="4"/>
       <c r="B104" s="4"/>
       <c r="C104" s="5"/>
       <c r="D104" s="4"/>
       <c r="E104" s="4"/>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="105" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="4"/>
       <c r="B105" s="4"/>
       <c r="C105" s="5"/>
       <c r="D105" s="4"/>
       <c r="E105" s="4"/>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="106" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="4"/>
       <c r="B106" s="4"/>
       <c r="C106" s="5"/>
@@ -1459,12 +1445,17 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B1">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
+    <cfRule type="cellIs" priority="2" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>
 
